--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1936.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1936.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.201970132045523</v>
+        <v>0.3714698851108551</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.2615610957145691</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.4057794809341431</v>
       </c>
       <c r="D1">
-        <v>1.713637147622167</v>
+        <v>4.472200393676758</v>
       </c>
       <c r="E1">
-        <v>1.180103267876126</v>
+        <v>2.317106008529663</v>
       </c>
     </row>
   </sheetData>
